--- a/biology/Botanique/Macrolobium_guianense/Macrolobium_guianense.xlsx
+++ b/biology/Botanique/Macrolobium_guianense/Macrolobium_guianense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macrolobium guianense est une espèce d'arbre endémique du Suriname et de Guyane appartenant à la famille des Fabaceae.
-Il est connu en Guyane sous le nom de Watampana (Nenge tongo, nom partagé avec Macrolobium bifolium)[3].
+Il est connu en Guyane sous le nom de Watampana (Nenge tongo, nom partagé avec Macrolobium bifolium).
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Macrolobium guianense est un arbre avec des jeunes rameaux et jeunes feuilles pubescents.
 Les feuilles sont composées à 2 paires de folioles mesurant 3-6 x 1-3 cm, de forme ovales ou elliptiques, obtuses ou émarginées glabres sauf sur la côte en dessous.
 Les fleurs sont organisées en grappes glabres, avec des bractées lancéolées, et des bractéoles aiguës.
-L'ovaire est glabre, avec un stipe pubescent et le style long d'environ 15 mm[4],[5].
+L'ovaire est glabre, avec un stipe pubescent et le style long d'environ 15 mm,.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Macrolobium guianense est connu de Guyane et du Suriname.
 </t>
@@ -577,7 +593,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est largement méconnue.
 </t>
@@ -608,9 +626,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant[6] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant : 
 « 1. OUTEA Guanenſis.. (Tabula 9.) 
 Arbor alta. Folia alterna, pinnata ; eoliolis ovatis, oppoſitis bijugatis. Stipulæ duæ, acutæ, parvæ, deciduæ, ad baſim petioli communis. Flores ſpicati, axillares ; petala violacea.
 Menſe Maio floret.
